--- a/testjson.xlsx
+++ b/testjson.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myriamcloutier/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p1177632\Documents\GitHub\Dataset-sbl-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F376E3F-1304-864E-9987-C4A57F76058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{A29BD024-2D92-8F40-ABC2-E52AAE658A06}"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="260">
   <si>
     <t>type</t>
   </si>
@@ -47,15 +46,6 @@
     <t>bbox</t>
   </si>
   <si>
-    <t>properties</t>
-  </si>
-  <si>
-    <t>geometry</t>
-  </si>
-  <si>
-    <t>assets</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -98,9 +88,6 @@
     <t>sci:publication</t>
   </si>
   <si>
-    <t>doi</t>
-  </si>
-  <si>
     <t>citation</t>
   </si>
   <si>
@@ -147,13 +134,694 @@
   </si>
   <si>
     <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548604</t>
+  </si>
+  <si>
+    <t>geometry_type</t>
+  </si>
+  <si>
+    <t>0.0164</t>
+  </si>
+  <si>
+    <t>2021-05-28-sbl-z2-rgb</t>
+  </si>
+  <si>
+    <t>576845.55,577588.91,5093487.11,5094128.33</t>
+  </si>
+  <si>
+    <t>2021-05-28-sbl-z2-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 2 SBL, 2021-05-28. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-05-28T18:52:47Z</t>
+  </si>
+  <si>
+    <t>2021-05-28T19:30:18Z</t>
+  </si>
+  <si>
+    <t>2022-03-20T04:41:24Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T02:20:07Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148480</t>
+  </si>
+  <si>
+    <t>[577045.3863,5094090.4351],[576974.1152,5093925.1600],[576878.8823,5093785.6898],[576867.2087,5093762.9569],[576862.9078,5093700.9020],[576888.0985,5093648.0631],[576979.0305,5093611.8132],[577012.8228,5093624.7157],[577026.9541,5093612.4276],[577016.5093,5093579.8640],[577022.6533,5093554.0590],[577044.1574,5093536.2412],[577078.5641,5093533.7837],[577108.0557,5093509.2073],[577551.0421,5093636.3893],[577497.5888,5093818.8677],[577372.2500,5093987.8293],[577224.7927,5094116.2401]</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548605</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548605</t>
+  </si>
+  <si>
+    <t>2021-05-28-sbl-z3-rgb</t>
+  </si>
+  <si>
+    <t>576594.81,577085.23,5093336.38,5093807.95</t>
+  </si>
+  <si>
+    <t>2021-05-28-sbl-z3-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 3 SBL, 2021-05-28. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-05-28T17:34:35Z</t>
+  </si>
+  <si>
+    <t>2021-05-28T17:44:17Z</t>
+  </si>
+  <si>
+    <t>2022-03-10T00:30:13Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T02:21:36Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148481</t>
+  </si>
+  <si>
+    <t>[576632.4110,5093661.5738],[576615.4206,5093605.8834],[576625.8037,5093570.4869],[576650.3452,5093542.1698],[576740.01630,5093499.6941],[576890.0972,5093364.2435],[576921.7181,5093373.2106],[577017.5245,5093512.9087],[577051.9770,5093616.2664],[576957.5865,5093705.4655],[576872.6349,5093746.5253],[576784.8518,5093778.1461]</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548606</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548606</t>
+  </si>
+  <si>
+    <t>2021-06-17-sbl-z1-rgb</t>
+  </si>
+  <si>
+    <t>576850.47,577617.71,5092986.46,5093773.38</t>
+  </si>
+  <si>
+    <t>2021-06-17-sbl-z1-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 1 SBL, 2021-06-17. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-06-17T16:54:24Z</t>
+  </si>
+  <si>
+    <t>2021-06-17T17:47:18Z</t>
+  </si>
+  <si>
+    <t>2022-02-25T02:45:38Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T02:29:01Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148482</t>
+  </si>
+  <si>
+    <t>[577138.2137,5093714.2908],[577027.1601,5093595.4564],[577018.6720,5093454.6943],[576891.3494,5093337.9821],[577042.7218,5093085.4590],[577110.6271,5093041.6034],[577161.5562,5093017.5537],[577480.5698,5093363.4465],[577549.8898,5093505.6234],[577572.5250,5093608.8960],[577498.9609,5093724.1938]</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548607</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548607</t>
+  </si>
+  <si>
+    <t>2021-06-17-sbl-z2-rgb</t>
+  </si>
+  <si>
+    <t>576841.21,577563.7,5093482.84,5094088.79</t>
+  </si>
+  <si>
+    <t>2021-06-17-sbl-z2-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 2 SBL, 2021-06-17. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-06-17T15:02:50Z</t>
+  </si>
+  <si>
+    <t>2021-06-17T15:42:55Z</t>
+  </si>
+  <si>
+    <t>2022-02-25T19:46:29Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T02:34:25Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148483</t>
+  </si>
+  <si>
+    <t>[577028.6358,5094058.6882],[576924.9982,5093837.2246],[576879.9652,5093778.6201],[576875.6469,5093667.5798],[576964.4791,5093616.9947],[576995.3236,5093616.9947],[577026.7850,5093636.1184],[577034.1878,5093621.3129],[577021.2330,5093555.9227],[577062.5646,5093540.5003],[577087.2402,5093510.8896],[577462.9265,5093573.8125],[577525.2324,5093721.2492],[577512.8946,5093800.2112],[577414.8091,5093931.6087],[577304.3857,5094037.0971],[577102.6626,5094078.4287]</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548608</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548608</t>
+  </si>
+  <si>
+    <t>2021-06-17-sbl-z3-rgb</t>
+  </si>
+  <si>
+    <t>576558.31,577076.48,5093275.27,5093812.62</t>
+  </si>
+  <si>
+    <t>2021-06-17-sbl-z3-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 3 SBL, 2021-06-17. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-06-17T14:38:34Z</t>
+  </si>
+  <si>
+    <t>2021-06-17T14:58:19Z</t>
+  </si>
+  <si>
+    <t>2022-02-24T22:47:15Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T02:36:30Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148484</t>
+  </si>
+  <si>
+    <t>[576777.9559,5093773.6557],[576593.4546,5093613.4433],[576660.2488,5093498.5387],[576712.0959,5093477.5197],[576738.2531,5093437.3498],[576848.9539,5093337.8592],[576949.8457,5093387.8380],[576993.2851,5093474.7171],[577038.1260,5093554.5898],[577035.7905,5093630.2587],[576963.8585,5093698.4540],[576855.0261,5093756.3734]</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548609</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548609</t>
+  </si>
+  <si>
+    <t>2021-07-21-sbl-z1-rgb</t>
+  </si>
+  <si>
+    <t>576837.58,577619.27,5092977.82,5093778.56</t>
+  </si>
+  <si>
+    <t>2021-07-21-sbl-z1-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 1 SBL, 2021-07-21. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-07-21T18:23:41Z</t>
+  </si>
+  <si>
+    <t>2021-07-21T19:16:46Z</t>
+  </si>
+  <si>
+    <t>2022-03-10T23:32:33Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T02:44:46Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148485</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548610</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548610</t>
+  </si>
+  <si>
+    <t>2021-07-21-sbl-z2-rgb</t>
+  </si>
+  <si>
+    <t>576841.98,577561.39,5093496.48,5094112.36</t>
+  </si>
+  <si>
+    <t>2021-07-21-sbl-z2-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 2 SBL, 2021-07-21. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-07-21T17:15:09Z</t>
+  </si>
+  <si>
+    <t>2021-07-21T18:16:32Z</t>
+  </si>
+  <si>
+    <t>2022-03-01T20:29:45Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T02:50:16Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148486</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548611</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548611</t>
+  </si>
+  <si>
+    <t>2021-07-21-sbl-z3-rgb</t>
+  </si>
+  <si>
+    <t>576566.45,577083.02,5093315.71,5093807.62</t>
+  </si>
+  <si>
+    <t>2021-07-21-sbl-z3-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 3 SBL, 2021-07-21. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-07-21T14:43:45Z</t>
+  </si>
+  <si>
+    <t>2021-07-21T14:59:03Z</t>
+  </si>
+  <si>
+    <t>2022-02-25T00:38:41Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T02:51:50Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148487</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548612</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548612</t>
+  </si>
+  <si>
+    <t>2021-08-18-sbl-z1-rgb</t>
+  </si>
+  <si>
+    <t>576844.98,577631.01,5092959.8,5093828.57</t>
+  </si>
+  <si>
+    <t>2021-08-18-sbl-z1-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 1 SBL, 2021-08-18. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-08-18T15:10:08Z</t>
+  </si>
+  <si>
+    <t>2021-08-18T17:04:51Z</t>
+  </si>
+  <si>
+    <t>2022-04-02T23:46:38Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T02:59:27Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148488</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548613</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548613</t>
+  </si>
+  <si>
+    <t>2021-08-18-sbl-z2-rgb</t>
+  </si>
+  <si>
+    <t>576837.79,577561.81,5093483.46,5094084.35</t>
+  </si>
+  <si>
+    <t>2021-08-18-sbl-z2-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 2 SBL, 2021-08-18. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-08-18T14:21:30Z</t>
+  </si>
+  <si>
+    <t>2021-08-18T15:02:28Z</t>
+  </si>
+  <si>
+    <t>2022-04-13T22:43:33Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T03:04:14Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148489</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548614</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548614</t>
+  </si>
+  <si>
+    <t>2021-08-18-sbl-z3-rgb</t>
+  </si>
+  <si>
+    <t>576559.29,577069.72,5093301.49,5093809.33</t>
+  </si>
+  <si>
+    <t>2021-08-18-sbl-z3-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 3 SBL, 2021-08-18. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-08-18T13:59:13Z</t>
+  </si>
+  <si>
+    <t>2021-08-18T14:14:30Z</t>
+  </si>
+  <si>
+    <t>2022-04-15T19:53:41Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T03:05:48Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148490</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548615</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548615</t>
+  </si>
+  <si>
+    <t>2021-09-02-sbl-z1-rgb</t>
+  </si>
+  <si>
+    <t>576854.94,577611.15,5092978.45,5093773.46</t>
+  </si>
+  <si>
+    <t>2021-09-02-sbl-z1-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 1 SBL, 2021-09-02. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-09-02T17:28:52Z</t>
+  </si>
+  <si>
+    <t>2021-09-02T18:17:52Z</t>
+  </si>
+  <si>
+    <t>2022-03-02T22:00:30Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T03:13:20Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148491</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548616</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548616</t>
+  </si>
+  <si>
+    <t>2021-09-02-sbl-z2-rgb</t>
+  </si>
+  <si>
+    <t>576846.21,577566.58,5093494.04,5094099.41</t>
+  </si>
+  <si>
+    <t>2021-09-02-sbl-z2-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 2 SBL, 2021-09-02. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-09-02T14:48:06Z</t>
+  </si>
+  <si>
+    <t>2021-09-02T15:29:19Z</t>
+  </si>
+  <si>
+    <t>2022-03-02T00:13:41Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T03:18:45Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148492</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548617</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548617</t>
+  </si>
+  <si>
+    <t>2021-09-02-sbl-z3-rgb</t>
+  </si>
+  <si>
+    <t>576569.83,577067.14,5093310.56,5093807.34</t>
+  </si>
+  <si>
+    <t>2021-09-02-sbl-z3-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 3 SBL, 2021-09-02. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-09-02T18:24:42Z</t>
+  </si>
+  <si>
+    <t>2021-09-02T18:39:59Z</t>
+  </si>
+  <si>
+    <t>2022-03-03T03:15:58Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T03:20:20Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148493</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548618</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548618</t>
+  </si>
+  <si>
+    <t>2021-09-28-sbl-z1-rgb</t>
+  </si>
+  <si>
+    <t>576839.38,577620.1,5092974.73,5093774.94</t>
+  </si>
+  <si>
+    <t>2021-09-28-sbl-z1-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 1 SBL, 2021-09-28. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-09-28T17:57:17Z</t>
+  </si>
+  <si>
+    <t>2021-09-28T18:46:46Z</t>
+  </si>
+  <si>
+    <t>2022-02-25T01:03:53Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T03:28:07Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148494</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548619</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548619</t>
+  </si>
+  <si>
+    <t>2021-09-28-sbl-z2-rgb</t>
+  </si>
+  <si>
+    <t>576844.32,577566.33,5093475.07,5094075.3</t>
+  </si>
+  <si>
+    <t>2021-09-28-sbl-z2-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 2 SBL, 2021-09-28. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-09-28T15:28:01Z</t>
+  </si>
+  <si>
+    <t>2021-09-28T16:08:02Z</t>
+  </si>
+  <si>
+    <t>2022-04-08T20:22:50Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T03:33:39Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148495</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548620</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548620</t>
+  </si>
+  <si>
+    <t>2021-09-28-sbl-z3-rgb</t>
+  </si>
+  <si>
+    <t>576581.47,577079.25,5093297.34,5093795.11</t>
+  </si>
+  <si>
+    <t>2021-09-28-sbl-z3-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 3 SBL, 2021-09-28. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-09-28T14:00:53Z</t>
+  </si>
+  <si>
+    <t>2021-09-28T14:16:58Z</t>
+  </si>
+  <si>
+    <t>2022-03-03T06:01:32Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T03:35:14Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148496</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548621</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548621</t>
+  </si>
+  <si>
+    <t>2021-10-07-sbl-z1-rgb</t>
+  </si>
+  <si>
+    <t>576842.4,577626.8,5092980.58,5093784.58</t>
+  </si>
+  <si>
+    <t>2021-10-07-sbl-z1-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 1 SBL, 2021-10-07. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-10-07T14:11:37Z</t>
+  </si>
+  <si>
+    <t>2021-10-07T15:35:33Z</t>
+  </si>
+  <si>
+    <t>2022-03-16T19:29:45Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T03:42:49Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148497</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548622</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548622</t>
+  </si>
+  <si>
+    <t>2021-10-07-sbl-z2-rgb</t>
+  </si>
+  <si>
+    <t>576836.57,577563.82,5093471.66,5094073.06</t>
+  </si>
+  <si>
+    <t>2021-10-07-sbl-z2-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 2 SBL, 2021-10-07. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-10-07T17:00:27Z</t>
+  </si>
+  <si>
+    <t>2021-10-07T17:40:40Z</t>
+  </si>
+  <si>
+    <t>2022-02-25T21:38:05Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T03:48:17Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148498</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548623</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548623</t>
+  </si>
+  <si>
+    <t>2021-10-07-sbl-z3-rgb</t>
+  </si>
+  <si>
+    <t>576573.09,577076.79,5093282.89,5093805.94</t>
+  </si>
+  <si>
+    <t>2021-10-07-sbl-z3-rgb-cog.tif</t>
+  </si>
+  <si>
+    <t>RGB orthomosaic of zone 3 SBL, 2021-10-07. WGS84 / UTM zone 18N.</t>
+  </si>
+  <si>
+    <t>2021-10-07T15:40:32Z</t>
+  </si>
+  <si>
+    <t>2021-10-07T15:55:49Z</t>
+  </si>
+  <si>
+    <t>2022-04-03T02:25:40Z</t>
+  </si>
+  <si>
+    <t>2023-08-25T03:50:00Z</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.8148499</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2023.08.03.548624</t>
+  </si>
+  <si>
+    <t>Cloutier, M., Germain, M., &amp; Laliberté, E. (2023). Influence of Temperate Forest Autumn Leaf Phenology on Segmentation of Tree Species from UAV Imagery Using Deep Learning (p. 2023.08.03.548604). bioRxiv. https://doi.org/10.1101/2023.08.03.548624</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,6 +842,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,10 +875,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,16 +1190,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE7DB53-78E7-B641-9FE3-AEDA62EED133}">
-  <dimension ref="A1:AC4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="28.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -538,25 +1216,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="Q1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="S1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
@@ -567,56 +1271,26 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -628,7 +1302,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -647,12 +1321,8 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -663,66 +1333,64 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1.6400000000000001E-2</v>
+        <v>27</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="O4" s="1">
         <v>32618</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -734,10 +1402,1188 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="1">
+        <v>32618</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="S4" r:id="rId1" xr:uid="{23700042-3E31-3A4F-B567-9596DCA10236}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>